--- a/Simper_OTU/stevia_krusk_simper.xlsx
+++ b/Simper_OTU/stevia_krusk_simper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\Simper_OTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE5283D-F975-44A6-8BB7-327DE847F7A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CADA10EB-4EAB-46D8-A180-89A991406C43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
@@ -363,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +543,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -704,9 +716,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,11 +1078,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="88.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1102,1860 +1119,1860 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.2187051386932998E-2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.0609694290093499E-11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.9091403461390704E-9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.8228522911979998E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.6703429557230899E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.1540755551446497E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7.1951065875998296E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.8957445528714001E-2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.7847174376957296E-10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.2605879572824297E-8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.3418001086866699E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.8420789861127E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.5003303722319003E-2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.80685336159737E-9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.8421592024981603E-8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.88524234661511E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.0099494814167E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.38031382506255E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.93620645755451E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.6211078130068001E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.2673181477282497E-9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.7623246508241001E-7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.6391192948928294E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.8521855539744806E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0168178759438699E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4651544140408999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.7415145469036001E-2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.05585194244233E-8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.9883527683381299E-7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.7353649908020998E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.67141767393894E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.1058429585531699E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.1418691494582401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>7.0295887868863302E-2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" s="1">
+        <v>4.0188464443846002E-2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.5644719293764106E-7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.5462562952491899E-5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.15065379206478E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5911044262922999E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.8046826070269706E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.5839229036854603E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.3394859304632998E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.40264983497016E-6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.3293861998872199E-5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.2606992822582101E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.0379481506786401E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.4859944639199699E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.6126067191392603E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.8173433070773E-2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.10724657201131E-6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.7675364685637097E-5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.18475341333136E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.01083971736295E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.0561362195309101E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.6438967953538202E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.4574950703196798E-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.9746048425190004E-6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.2837407747149199E-5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.9599289583790305E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.13259297401507E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9.9411155756052597E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.6210667498794797E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.4745889732284001E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.8922645348900399E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.8054965988433402E-4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.9561059254391695E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.4431704585294503E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.1586331483635497E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.37939618350174E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.8452353200222E-2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.58936499471518E-5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.1651673135215698E-4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.2968729656769603E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.0521724302403802E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.85853053663744E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.7824897542097598E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.8042787060476001E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.2552900786848899E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.01469281360362E-3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.15065379206478E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.5911044262922999E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.07101007676849E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.2603666921284901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.0265284715903E-2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.40347007364439E-4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.04720459341159E-3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.15065379206478E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.5911044262922999E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.18077047407583E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.4338763334869703E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.9512421609049997E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.2619741787925497E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.9529392524491301E-3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.9599289583790305E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.13259297401507E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6.1688354606103502E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5.7782704458152298E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.0948692486891E-2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.6653204698955301E-4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.0169072371991098E-3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.3531457023073601E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.88661296550775E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.8782705000446997E-2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5418110378533001E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.3472294169856408E-3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.9466436320974002E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.4528729871221197E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.8515774296377199E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.9872434433051501E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.2185875982703002E-2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.3673077616846298E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.3507579581377001E-2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.9599289583790305E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.13259297401507E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.9453501074221097E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8.3065779309242596E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.6997028856755E-2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.2000446449416699E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.72446850310746E-2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.2562578790079899E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.0677063603213399E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3.9085251687695E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.1285204944229603E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.6358859857318999E-2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.9481013863441102E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5261359709230501E-2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.6889237740684004E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.3665519497681901E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.6931804155910098E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.5684208961967801E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.5147353693553998E-2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.4885321947019602E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.66193811443045E-2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.9699500025183299E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.554128829736E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.4097131012268697E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.8509115222415397E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.8133576021470998E-2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.5459995895980894E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.7680089099591599E-2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.9931425394260805E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.10287913560345301</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.1241551144604799E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.5000581035587E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.1954173641241002E-2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.5365657694296496E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.7680089099591599E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.1735757782266899E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7.4666184997638899E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9.8632262920916505E-3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.9086039663618099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.6024551642797997E-2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.1793159246146803E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.87127671603315E-2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.4169317522618101E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5.96941538855136E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.2453984185770503E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6.7683007655201702E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.8062200317052999E-2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.04272475673318E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.2143458917966101E-2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.4026839442887899E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.99217201930488E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5.43852400506648E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5.5109402578439597E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.9789353854850003E-2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.3754113117151001E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5.1754566632694399E-2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5.9466436320974002E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5.4528729871221197E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.6635240431008501E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3.9767745927989297E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4.1661814085305997E-2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.3872358066495401E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.1754566632694399E-2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5.9466436320974002E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5.4528729871221197E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2.87992418909673E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4.6377911552650003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.7848807320107999E-2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.6172557860884899E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.6038027601860198E-2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6.8127183586115497E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.0193242131395698E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4.59111399702231E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.4543077820389E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.1336474903098002E-2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.61759254933205E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.6038027601860198E-2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4.7929897083316103E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.8704203967614698E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>9.5370403784657207E-3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.1338970543726899E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.5781638018044403E-2</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>0.111126160531357</v>
-      </c>
-      <c r="E2">
-        <v>0.29125407509661499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>0.10789861817584701</v>
-      </c>
-      <c r="H2">
-        <v>9.9138203099267699E-2</v>
-      </c>
-      <c r="I2">
-        <v>6.3530322806986506E-2</v>
-      </c>
-      <c r="J2">
-        <v>7.9898999869105994E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D30" s="3">
+        <v>1.7237190629957998E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.7655430727790502E-2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7.4074033781213494E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.10858540223416201</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8.6908188518848697E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.8156509142131099E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3.0534366157737001E-2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.0834421817638601E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6.7364630543698206E-2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.2599275714952797E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5.6715568105427903E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.9602936268369201E-3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4.7310900110775099E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.7895468343964998E-2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.34344444803525E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7.3327132728844793E-2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2.2562578790079899E-3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.0677063603213399E-3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3.9796018982340101E-2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4.1366221778781999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B33" s="3">
         <v>5.7844021132472702E-2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D33" s="3">
         <v>2.9767035118473999E-2</v>
       </c>
-      <c r="E3">
+      <c r="E33" s="3">
         <v>9.0231325202874399E-2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G33" s="3">
         <v>7.9931425394260805E-2</v>
       </c>
-      <c r="H3">
+      <c r="H33" s="3">
         <v>0.10287913560345301</v>
       </c>
-      <c r="I3">
+      <c r="I33" s="3">
         <v>1.3327683554003E-2</v>
       </c>
-      <c r="J3">
+      <c r="J33" s="3">
         <v>2.2651115475511699E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>5.2185875982703002E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2.3673077616846298E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.3507579581377001E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>9.9599289583790305E-3</v>
-      </c>
-      <c r="H4">
-        <v>1.13259297401507E-2</v>
-      </c>
-      <c r="I4">
-        <v>7.9453501074221097E-2</v>
-      </c>
-      <c r="J4">
-        <v>8.3065779309242596E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>4.2649437171030001E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>0.37582549509668101</v>
-      </c>
-      <c r="E5">
-        <v>0.62273504748116004</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>4.07544935841831E-2</v>
-      </c>
-      <c r="H5">
-        <v>5.6497570521860802E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.6993494973996198E-2</v>
-      </c>
-      <c r="J5">
-        <v>7.5618479133372093E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>4.0188464443846002E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9.5644719293764106E-7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.5462562952491899E-5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2.15065379206478E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.5911044262922999E-2</v>
-      </c>
-      <c r="I6">
-        <v>7.8046826070269706E-2</v>
-      </c>
-      <c r="J6">
-        <v>3.5839229036854603E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3.8782705000446997E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>1.5418110378533001E-3</v>
-      </c>
-      <c r="E7">
-        <v>9.3472294169856408E-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>5.9466436320974002E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.4528729871221197E-2</v>
-      </c>
-      <c r="I7">
-        <v>1.8515774296377199E-2</v>
-      </c>
-      <c r="J7">
-        <v>2.9872434433051501E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3.5787620836237002E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0.54839072416742995</v>
-      </c>
-      <c r="E8">
-        <v>0.74971893664590605</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>3.9062025175618402E-2</v>
-      </c>
-      <c r="H8">
-        <v>3.6998115792133003E-2</v>
-      </c>
-      <c r="I8">
-        <v>3.29212565804433E-2</v>
-      </c>
-      <c r="J8">
-        <v>5.8068352484344797E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3.2203398644503001E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>0.69297031172472801</v>
-      </c>
-      <c r="E9">
-        <v>0.80881998566981295</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>2.7688827702410702E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.8268022417426299E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.5990195661916401E-2</v>
-      </c>
-      <c r="J9">
-        <v>5.8645454798692799E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>3.2185274889829002E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>0.27518351371311101</v>
-      </c>
-      <c r="E10">
-        <v>0.513323092887918</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2.6545928117924299E-2</v>
-      </c>
-      <c r="H10">
-        <v>4.4644044123774297E-2</v>
-      </c>
-      <c r="I10">
-        <v>3.16989526447672E-2</v>
-      </c>
-      <c r="J10">
-        <v>5.8732280995541002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3.0436652781012E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>7.9169352984415298E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.21331742331911899</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>4.2599275714952797E-2</v>
-      </c>
-      <c r="H11">
-        <v>5.6715568105427903E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.1455223097139199E-3</v>
-      </c>
-      <c r="J11">
-        <v>1.000854176574E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2.8873201764347999E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>4.3375265311784802E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.123747080448327</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>2.7020121493482999E-2</v>
-      </c>
-      <c r="H12">
-        <v>5.2365170708018403E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.9112856126181101E-2</v>
-      </c>
-      <c r="J12">
-        <v>6.6104667515425306E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2.6997028856755E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>3.2000446449416699E-3</v>
-      </c>
-      <c r="E13">
-        <v>1.72446850310746E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>2.2562578790079899E-3</v>
-      </c>
-      <c r="H13">
-        <v>3.0677063603213399E-3</v>
-      </c>
-      <c r="I13">
-        <v>3.9085251687695E-2</v>
-      </c>
-      <c r="J13">
-        <v>4.1285204944229603E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>6.9808684601490201E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0.55688405172325905</v>
-      </c>
-      <c r="E14">
-        <v>0.74971893664590605</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>0.10789861817584701</v>
-      </c>
-      <c r="H14">
-        <v>9.9138203099267699E-2</v>
-      </c>
-      <c r="I14">
-        <v>8.4863498403756399E-2</v>
-      </c>
-      <c r="J14">
-        <v>7.9592033516435304E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>6.4574950703196798E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.9746048425190004E-6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.2837407747149199E-5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>9.9599289583790305E-3</v>
-      </c>
-      <c r="H15">
-        <v>1.13259297401507E-2</v>
-      </c>
-      <c r="I15">
-        <v>9.9411155756052597E-2</v>
-      </c>
-      <c r="J15">
-        <v>9.6210667498794797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>5.8133576021470998E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>8.5459995895980894E-3</v>
-      </c>
-      <c r="E16">
-        <v>3.7680089099591599E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16">
-        <v>7.9931425394260805E-2</v>
-      </c>
-      <c r="H16">
-        <v>0.10287913560345301</v>
-      </c>
-      <c r="I16">
-        <v>1.1241551144604799E-2</v>
-      </c>
-      <c r="J16">
-        <v>2.5000581035587E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>4.3599630214835997E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>0.78115741146809103</v>
-      </c>
-      <c r="E17">
-        <v>0.85899791534117298</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17">
-        <v>2.7688827702410702E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.8268022417426299E-2</v>
-      </c>
-      <c r="I17">
-        <v>6.13715213529454E-2</v>
-      </c>
-      <c r="J17">
-        <v>9.6040223187112903E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>3.9789353854850003E-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>1.3754113117151001E-2</v>
-      </c>
-      <c r="E18">
-        <v>5.1754566632694399E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18">
-        <v>5.9466436320974002E-2</v>
-      </c>
-      <c r="H18">
-        <v>5.4528729871221197E-2</v>
-      </c>
-      <c r="I18">
-        <v>2.6635240431008501E-2</v>
-      </c>
-      <c r="J18">
-        <v>3.9767745927989297E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>3.8990758073214997E-2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>0.67900606855120904</v>
-      </c>
-      <c r="E19">
-        <v>0.80881998566981295</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19">
-        <v>4.07544935841831E-2</v>
-      </c>
-      <c r="H19">
-        <v>5.6497570521860802E-2</v>
-      </c>
-      <c r="I19">
-        <v>3.1915497375646799E-2</v>
-      </c>
-      <c r="J19">
-        <v>6.0733252405908697E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>3.8042787060476001E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>1.2552900786848899E-4</v>
-      </c>
-      <c r="E20">
-        <v>1.01469281360362E-3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20">
-        <v>2.15065379206478E-2</v>
-      </c>
-      <c r="H20">
-        <v>1.5911044262922999E-2</v>
-      </c>
-      <c r="I20">
-        <v>7.07101007676849E-2</v>
-      </c>
-      <c r="J20">
-        <v>4.2603666921284901E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>3.0544738139200001E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>4.3371556477145697E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.123747080448327</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>4.2599275714952797E-2</v>
-      </c>
-      <c r="H21">
-        <v>5.6715568105427903E-2</v>
-      </c>
-      <c r="I21">
-        <v>3.2002640520227099E-3</v>
-      </c>
-      <c r="J21">
-        <v>6.3572771130504004E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>2.9018448741221E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>0.337082704468115</v>
-      </c>
-      <c r="E22">
-        <v>0.58387539881084205</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>3.9062025175618402E-2</v>
-      </c>
-      <c r="H22">
-        <v>3.6998115792133003E-2</v>
-      </c>
-      <c r="I22">
-        <v>2.3058531679715E-2</v>
-      </c>
-      <c r="J22">
-        <v>3.63042217667199E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>2.7322701641852999E-2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>0.879164803243207</v>
-      </c>
-      <c r="E23">
-        <v>0.90568458875440905</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <v>2.7020121493482999E-2</v>
-      </c>
-      <c r="H23">
-        <v>5.2365170708018403E-2</v>
-      </c>
-      <c r="I23">
-        <v>2.3657532350057301E-2</v>
-      </c>
-      <c r="J23">
-        <v>3.1273334453120499E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>2.4745889732284001E-2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.8922645348900399E-5</v>
-      </c>
-      <c r="E24">
-        <v>2.8054965988433402E-4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24">
-        <v>7.9561059254391695E-3</v>
-      </c>
-      <c r="H24">
-        <v>5.4431704585294503E-3</v>
-      </c>
-      <c r="I24">
-        <v>4.1586331483635497E-2</v>
-      </c>
-      <c r="J24">
-        <v>3.37939618350174E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>2.4493263299668999E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>0.58570243576304404</v>
-      </c>
-      <c r="E25">
-        <v>0.75750848358687095</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25">
-        <v>2.6545928117924299E-2</v>
-      </c>
-      <c r="H25">
-        <v>4.4644044123774297E-2</v>
-      </c>
-      <c r="I25">
-        <v>1.6829505966785899E-2</v>
-      </c>
-      <c r="J25">
-        <v>3.2509714461175503E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>6.82370035509062E-2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>0.15800651302803601</v>
-      </c>
-      <c r="E26">
-        <v>0.37382028691998698</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26">
-        <v>0.10789861817584701</v>
-      </c>
-      <c r="H26">
-        <v>9.9138203099267699E-2</v>
-      </c>
-      <c r="I26">
-        <v>6.03936785932448E-2</v>
-      </c>
-      <c r="J26">
-        <v>6.6754904248642E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <v>5.9066803124236802E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>0.67418730204715405</v>
-      </c>
-      <c r="E27">
-        <v>0.80881998566981295</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>7.9931425394260805E-2</v>
-      </c>
-      <c r="H27">
-        <v>0.10287913560345301</v>
-      </c>
-      <c r="I27">
-        <v>2.23477580651146E-2</v>
-      </c>
-      <c r="J27">
-        <v>2.4870168697368699E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>4.1661814085305997E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>1.3872358066495401E-2</v>
-      </c>
-      <c r="E28">
-        <v>5.1754566632694399E-2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28">
-        <v>5.9466436320974002E-2</v>
-      </c>
-      <c r="H28">
-        <v>5.4528729871221197E-2</v>
-      </c>
-      <c r="I28">
-        <v>2.87992418909673E-2</v>
-      </c>
-      <c r="J28">
-        <v>4.6377911552650003E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
-        <v>3.9512421609049997E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>4.2619741787925497E-4</v>
-      </c>
-      <c r="E29">
-        <v>2.9529392524491301E-3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29">
-        <v>9.9599289583790305E-3</v>
-      </c>
-      <c r="H29">
-        <v>1.13259297401507E-2</v>
-      </c>
-      <c r="I29">
-        <v>6.1688354606103502E-2</v>
-      </c>
-      <c r="J29">
-        <v>5.7782704458152298E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>3.9072221975099998E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>0.485312788781324</v>
-      </c>
-      <c r="E30">
-        <v>0.72423600787366804</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30">
-        <v>4.07544935841831E-2</v>
-      </c>
-      <c r="H30">
-        <v>5.6497570521860802E-2</v>
-      </c>
-      <c r="I30">
-        <v>3.26319807937294E-2</v>
-      </c>
-      <c r="J30">
-        <v>5.8685636414341498E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>3.4990342210136E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>0.168027679902989</v>
-      </c>
-      <c r="E31">
-        <v>0.38495051522595503</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31">
-        <v>2.6545928117924299E-2</v>
-      </c>
-      <c r="H31">
-        <v>4.4644044123774297E-2</v>
-      </c>
-      <c r="I31">
-        <v>3.7834409349763301E-2</v>
-      </c>
-      <c r="J31">
-        <v>6.1622936499032298E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32">
-        <v>3.2716771398054997E-2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>0.71103782970565999</v>
-      </c>
-      <c r="E32">
-        <v>0.80881998566981295</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>2.7020121493482999E-2</v>
-      </c>
-      <c r="H32">
-        <v>5.2365170708018403E-2</v>
-      </c>
-      <c r="I32">
-        <v>3.1331647642270498E-2</v>
-      </c>
-      <c r="J32">
-        <v>5.9113072963019E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>3.0948692486891E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>4.6653204698955301E-4</v>
-      </c>
-      <c r="E33">
-        <v>3.0169072371991098E-3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>4.3531457023073601E-2</v>
-      </c>
-      <c r="J33">
-        <v>4.88661296550775E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>3.0534366157737001E-2</v>
+        <v>2.8873201764347999E-2</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>2.0834421817638601E-2</v>
+        <v>4.3375265311784802E-2</v>
       </c>
       <c r="E34">
-        <v>6.7364630543698206E-2</v>
+        <v>0.123747080448327</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>4.2599275714952797E-2</v>
+        <v>2.7020121493482999E-2</v>
       </c>
       <c r="H34">
-        <v>5.6715568105427903E-2</v>
+        <v>5.2365170708018403E-2</v>
       </c>
       <c r="I34">
-        <v>1.9602936268369201E-3</v>
+        <v>1.9112856126181101E-2</v>
       </c>
       <c r="J34">
-        <v>4.7310900110775099E-3</v>
+        <v>6.6104667515425306E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>3.0301642866734001E-2</v>
+        <v>3.0544738139200001E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>0.69049952782051705</v>
+        <v>4.3371556477145697E-2</v>
       </c>
       <c r="E35">
-        <v>0.80881998566981295</v>
+        <v>0.123747080448327</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>2.7688827702410702E-2</v>
+        <v>4.2599275714952797E-2</v>
       </c>
       <c r="H35">
-        <v>2.8268022417426299E-2</v>
+        <v>5.6715568105427903E-2</v>
       </c>
       <c r="I35">
-        <v>3.9365620074092902E-2</v>
+        <v>3.2002640520227099E-3</v>
       </c>
       <c r="J35">
-        <v>6.3595971824457795E-2</v>
+        <v>6.3572771130504004E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>3.0265284715903E-2</v>
+        <v>2.94721113977E-2</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>1.40347007364439E-4</v>
+        <v>4.7659569599544399E-2</v>
       </c>
       <c r="E36">
-        <v>1.04720459341159E-3</v>
+        <v>0.13208509289016601</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G36">
-        <v>2.15065379206478E-2</v>
+        <v>1.9112856126181101E-2</v>
       </c>
       <c r="H36">
-        <v>1.5911044262922999E-2</v>
+        <v>6.6104667515425306E-2</v>
       </c>
       <c r="I36">
-        <v>6.18077047407583E-2</v>
+        <v>2.3657532350057301E-2</v>
       </c>
       <c r="J36">
-        <v>3.4338763334869703E-2</v>
+        <v>3.1273334453120499E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>2.7941028270056002E-2</v>
+        <v>3.0436652781012E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>0.11710215390482399</v>
+        <v>7.9169352984415298E-2</v>
       </c>
       <c r="E37">
-        <v>0.29125407509661499</v>
+        <v>0.21331742331911899</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>3.9062025175618402E-2</v>
+        <v>4.2599275714952797E-2</v>
       </c>
       <c r="H37">
-        <v>3.6998115792133003E-2</v>
+        <v>5.6715568105427903E-2</v>
       </c>
       <c r="I37">
-        <v>1.7495816026808001E-2</v>
+        <v>5.1455223097139199E-3</v>
       </c>
       <c r="J37">
-        <v>3.13116915645952E-2</v>
+        <v>1.000854176574E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>2.7895468343964998E-2</v>
+        <v>7.0295887868863302E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>2.34344444803525E-2</v>
+        <v>0.111126160531357</v>
       </c>
       <c r="E38">
-        <v>7.3327132728844793E-2</v>
+        <v>0.29125407509661499</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>2.2562578790079899E-3</v>
+        <v>0.10789861817584701</v>
       </c>
       <c r="H38">
-        <v>3.0677063603213399E-3</v>
+        <v>9.9138203099267699E-2</v>
       </c>
       <c r="I38">
-        <v>3.9796018982340101E-2</v>
+        <v>6.3530322806986506E-2</v>
       </c>
       <c r="J38">
-        <v>4.1366221778781999E-2</v>
+        <v>7.9898999869105994E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>7.6766170950674506E-2</v>
+        <v>2.7941028270056002E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>0.24810781141007501</v>
+        <v>0.11710215390482399</v>
       </c>
       <c r="E39">
-        <v>0.47189132758386898</v>
+        <v>0.29125407509661499</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>7.9453501074221097E-2</v>
+        <v>3.9062025175618402E-2</v>
       </c>
       <c r="H39">
-        <v>8.3065779309242596E-2</v>
+        <v>3.6998115792133003E-2</v>
       </c>
       <c r="I39">
-        <v>9.9411155756052597E-2</v>
+        <v>1.7495816026808001E-2</v>
       </c>
       <c r="J39">
-        <v>9.6210667498794797E-2</v>
+        <v>3.13116915645952E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B40">
-        <v>6.7873338110741505E-2</v>
+        <v>2.5877136379858001E-2</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>0.31372552266384002</v>
+        <v>0.116354853393036</v>
       </c>
       <c r="E40">
-        <v>0.56918688296376196</v>
+        <v>0.29125407509661499</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>6.3530322806986506E-2</v>
+        <v>4.59111399702231E-2</v>
       </c>
       <c r="H40">
-        <v>7.9898999869105994E-2</v>
+        <v>2.4543077820389E-2</v>
       </c>
       <c r="I40">
-        <v>8.4863498403756399E-2</v>
+        <v>6.2220395874355301E-2</v>
       </c>
       <c r="J40">
-        <v>7.9592033516435304E-2</v>
+        <v>3.1423949265990597E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>5.7763622974811003E-2</v>
+        <v>3.2785856154092997E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>0.98737611417098403</v>
+        <v>0.128978042991964</v>
       </c>
       <c r="E41">
-        <v>0.98737611417098403</v>
+        <v>0.31277175425551201</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>4.5990195661916401E-2</v>
+        <v>7.8046826070269706E-2</v>
       </c>
       <c r="H41">
-        <v>5.8645454798692799E-2</v>
+        <v>3.5839229036854603E-2</v>
       </c>
       <c r="I41">
-        <v>6.13715213529454E-2</v>
+        <v>6.18077047407583E-2</v>
       </c>
       <c r="J41">
-        <v>9.6040223187112903E-2</v>
+        <v>3.4338763334869703E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>4.4728128055356003E-2</v>
+        <v>6.82370035509062E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>0.57168935837107504</v>
+        <v>0.15800651302803601</v>
       </c>
       <c r="E42">
-        <v>0.74971893664590605</v>
+        <v>0.37382028691998698</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G42">
-        <v>3.6993494973996198E-2</v>
+        <v>0.10789861817584701</v>
       </c>
       <c r="H42">
-        <v>7.5618479133372093E-2</v>
+        <v>9.9138203099267699E-2</v>
       </c>
       <c r="I42">
-        <v>3.1915497375646799E-2</v>
+        <v>6.03936785932448E-2</v>
       </c>
       <c r="J42">
-        <v>6.0733252405908697E-2</v>
+        <v>6.6754904248642E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>3.5292198409681001E-2</v>
+        <v>3.4990342210136E-2</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>0.43816513759098902</v>
+        <v>0.168027679902989</v>
       </c>
       <c r="E43">
-        <v>0.67463521184644304</v>
+        <v>0.38495051522595503</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G43">
-        <v>7.8046826070269706E-2</v>
+        <v>2.6545928117924299E-2</v>
       </c>
       <c r="H43">
-        <v>3.5839229036854603E-2</v>
+        <v>4.4644044123774297E-2</v>
       </c>
       <c r="I43">
-        <v>7.07101007676849E-2</v>
+        <v>3.7834409349763301E-2</v>
       </c>
       <c r="J43">
-        <v>4.2603666921284901E-2</v>
+        <v>6.1622936499032298E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>3.4921056115115999E-2</v>
+        <v>3.5620872899206998E-2</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>0.633089619964043</v>
+        <v>0.17064816654346501</v>
       </c>
       <c r="E44">
-        <v>0.78730375816041298</v>
+        <v>0.38495051522595503</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G44">
-        <v>3.9085251687695E-2</v>
+        <v>1.9112856126181101E-2</v>
       </c>
       <c r="H44">
-        <v>4.1285204944229603E-2</v>
+        <v>6.6104667515425306E-2</v>
       </c>
       <c r="I44">
-        <v>3.4410317212474999E-2</v>
+        <v>3.1331647642270498E-2</v>
       </c>
       <c r="J44">
-        <v>4.18754226267984E-2</v>
+        <v>5.9113072963019E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>3.4452069623159998E-2</v>
+        <v>3.4623484662677E-2</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>0.94789207430147504</v>
+        <v>0.18429914157542199</v>
       </c>
       <c r="E45">
-        <v>0.95776595007544896</v>
+        <v>0.40629583483672599</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>3.29212565804433E-2</v>
+        <v>1.59128888574641E-2</v>
       </c>
       <c r="H45">
-        <v>5.8068352484344797E-2</v>
+        <v>1.7951734045461899E-2</v>
       </c>
       <c r="I45">
-        <v>2.3058531679715E-2</v>
+        <v>4.3531457023073601E-2</v>
       </c>
       <c r="J45">
-        <v>3.63042217667199E-2</v>
+        <v>4.88661296550775E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>3.1492776575507003E-2</v>
+        <v>5.6402483769310799E-2</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>0.55405808480227103</v>
+        <v>0.188845582529998</v>
       </c>
       <c r="E46">
-        <v>0.74971893664590605</v>
+        <v>0.40706714456466198</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>3.16989526447672E-2</v>
+        <v>4.5050658721668697E-2</v>
       </c>
       <c r="H46">
-        <v>5.8732280995541002E-2</v>
+        <v>5.77002146821156E-2</v>
       </c>
       <c r="I46">
-        <v>1.6829505966785899E-2</v>
+        <v>7.73320100508358E-2</v>
       </c>
       <c r="J46">
-        <v>3.2509714461175503E-2</v>
+        <v>8.8912346145497603E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>2.94721113977E-2</v>
+        <v>6.7308133597493006E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>4.7659569599544399E-2</v>
+        <v>0.20163262335777599</v>
       </c>
       <c r="E47">
-        <v>0.13208509289016601</v>
+        <v>0.42229267945196403</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G47">
-        <v>1.9112856126181101E-2</v>
+        <v>9.9411155756052597E-2</v>
       </c>
       <c r="H47">
-        <v>6.6104667515425306E-2</v>
+        <v>9.6210667498794797E-2</v>
       </c>
       <c r="I47">
-        <v>2.3657532350057301E-2</v>
+        <v>6.1688354606103502E-2</v>
       </c>
       <c r="J47">
-        <v>3.1273334453120499E-2</v>
+        <v>5.7782704458152298E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>2.7848807320107999E-2</v>
+        <v>3.4665284068416999E-2</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>1.6172557860884899E-2</v>
+        <v>0.20896957333705399</v>
       </c>
       <c r="E48">
-        <v>5.6038027601860198E-2</v>
+        <v>0.42229267945196403</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <v>6.8127183586115497E-2</v>
+        <v>5.1914991803641897E-2</v>
       </c>
       <c r="H48">
-        <v>3.0193242131395698E-2</v>
+        <v>6.1466530343607099E-2</v>
       </c>
       <c r="I48">
-        <v>4.59111399702231E-2</v>
+        <v>3.9122683897651299E-3</v>
       </c>
       <c r="J48">
-        <v>2.4543077820389E-2</v>
+        <v>7.1868680875940803E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B49">
-        <v>2.7311449746275002E-2</v>
+        <v>4.4138915491918999E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>0.41040194706912297</v>
+        <v>0.20706002992851</v>
       </c>
       <c r="E49">
-        <v>0.64208046557588605</v>
+        <v>0.42229267945196403</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G49">
-        <v>3.4947910815278503E-2</v>
+        <v>6.2722988218628303E-2</v>
       </c>
       <c r="H49">
-        <v>2.9253672875435201E-2</v>
+        <v>8.3010404774993898E-2</v>
       </c>
       <c r="I49">
-        <v>4.1586331483635497E-2</v>
+        <v>2.38363834897387E-2</v>
       </c>
       <c r="J49">
-        <v>3.37939618350174E-2</v>
+        <v>3.1101920443607899E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B50">
-        <v>2.6293346383813001E-2</v>
+        <v>3.2735245153740003E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>0.57195052898759902</v>
+        <v>0.23911084208893801</v>
       </c>
       <c r="E50">
-        <v>0.74971893664590605</v>
+        <v>0.46387503365254001</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>1.8515774296377199E-2</v>
+        <v>6.0366125247143902E-2</v>
       </c>
       <c r="H50">
-        <v>2.9872434433051501E-2</v>
+        <v>3.6616732643917599E-2</v>
       </c>
       <c r="I50">
-        <v>2.6635240431008501E-2</v>
+        <v>5.34305057903081E-2</v>
       </c>
       <c r="J50">
-        <v>3.9767745927989297E-2</v>
+        <v>4.2867744559941502E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>6.2398920388543701E-2</v>
+        <v>2.8120205789376001E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>0.79576339142953001</v>
+        <v>0.23438628171336501</v>
       </c>
       <c r="E51">
-        <v>0.85899791534117298</v>
+        <v>0.46387503365254001</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>7.9453501074221097E-2</v>
+        <v>2.60277726804145E-2</v>
       </c>
       <c r="H51">
-        <v>8.3065779309242596E-2</v>
+        <v>3.6558155297439797E-2</v>
       </c>
       <c r="I51">
-        <v>6.1688354606103502E-2</v>
+        <v>2.96606079168261E-2</v>
       </c>
       <c r="J51">
-        <v>5.7782704458152298E-2</v>
+        <v>4.00173283129222E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>5.9714357015210301E-2</v>
+        <v>7.6766170950674506E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>0.80586402367058496</v>
+        <v>0.24810781141007501</v>
       </c>
       <c r="E52">
-        <v>0.85899791534117298</v>
+        <v>0.47189132758386898</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>6.3530322806986506E-2</v>
+        <v>7.9453501074221097E-2</v>
       </c>
       <c r="H52">
-        <v>7.9898999869105994E-2</v>
+        <v>8.3065779309242596E-2</v>
       </c>
       <c r="I52">
-        <v>6.03936785932448E-2</v>
+        <v>9.9411155756052597E-2</v>
       </c>
       <c r="J52">
-        <v>6.6754904248642E-2</v>
+        <v>9.6210667498794797E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>4.5365029838786999E-2</v>
+        <v>3.2185274889829002E-2</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>0.86185982238814696</v>
+        <v>0.27518351371311101</v>
       </c>
       <c r="E53">
-        <v>0.89892906206075496</v>
+        <v>0.513323092887918</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>3.6993494973996198E-2</v>
+        <v>2.6545928117924299E-2</v>
       </c>
       <c r="H53">
-        <v>7.5618479133372093E-2</v>
+        <v>4.4644044123774297E-2</v>
       </c>
       <c r="I53">
-        <v>3.26319807937294E-2</v>
+        <v>3.16989526447672E-2</v>
       </c>
       <c r="J53">
-        <v>5.8685636414341498E-2</v>
+        <v>5.8732280995541002E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B54">
-        <v>4.5337326455814002E-2</v>
+        <v>6.7873338110741505E-2</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>0.46854665907601201</v>
+        <v>0.31372552266384002</v>
       </c>
       <c r="E54">
-        <v>0.71014103016207997</v>
+        <v>0.56918688296376196</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
       <c r="G54">
-        <v>4.5990195661916401E-2</v>
+        <v>6.3530322806986506E-2</v>
       </c>
       <c r="H54">
-        <v>5.8645454798692799E-2</v>
+        <v>7.9898999869105994E-2</v>
       </c>
       <c r="I54">
-        <v>3.9365620074092902E-2</v>
+        <v>8.4863498403756399E-2</v>
       </c>
       <c r="J54">
-        <v>6.3595971824457795E-2</v>
+        <v>7.9592033516435304E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>4.2653431738706997E-2</v>
+        <v>3.0860984992009E-2</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>0.88701067970792602</v>
+        <v>0.31686692453652698</v>
       </c>
       <c r="E55">
-        <v>0.90568458875440905</v>
+        <v>0.56918688296376196</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G55">
-        <v>3.16989526447672E-2</v>
+        <v>3.8315172704074398E-2</v>
       </c>
       <c r="H55">
-        <v>5.8732280995541002E-2</v>
+        <v>6.8706024435120097E-2</v>
       </c>
       <c r="I55">
-        <v>3.7834409349763301E-2</v>
+        <v>1.20063768714333E-2</v>
       </c>
       <c r="J55">
-        <v>6.1622936499032298E-2</v>
+        <v>2.33785492500799E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B56">
-        <v>3.7700837417709E-2</v>
+        <v>2.9018448741221E-2</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>0.53069978373695403</v>
+        <v>0.337082704468115</v>
       </c>
       <c r="E56">
-        <v>0.74971893664590605</v>
+        <v>0.58387539881084205</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56">
-        <v>3.2228484851314798E-2</v>
+        <v>3.9062025175618402E-2</v>
       </c>
       <c r="H56">
-        <v>3.8085832366072297E-2</v>
+        <v>3.6998115792133003E-2</v>
       </c>
       <c r="I56">
-        <v>4.3531457023073601E-2</v>
+        <v>2.3058531679715E-2</v>
       </c>
       <c r="J56">
-        <v>4.88661296550775E-2</v>
+        <v>3.63042217667199E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>3.5620872899206998E-2</v>
+        <v>3.9295828664298003E-2</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>0.17064816654346501</v>
+        <v>0.33233821667327301</v>
       </c>
       <c r="E57">
-        <v>0.38495051522595503</v>
+        <v>0.58387539881084205</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <v>1.9112856126181101E-2</v>
+        <v>3.25280461004838E-2</v>
       </c>
       <c r="H57">
-        <v>6.6104667515425306E-2</v>
+        <v>7.4787146477644298E-2</v>
       </c>
       <c r="I57">
-        <v>3.1331647642270498E-2</v>
+        <v>3.4095255607904801E-2</v>
       </c>
       <c r="J57">
-        <v>5.9113072963019E-2</v>
+        <v>5.2172231512945602E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>3.5543017377596998E-2</v>
+        <v>6.4171208010820005E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>0.794313264024192</v>
+        <v>0.346940263003162</v>
       </c>
       <c r="E58">
-        <v>0.85899791534117298</v>
+        <v>0.59040711423345205</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G58">
-        <v>3.9085251687695E-2</v>
+        <v>8.4863498403756399E-2</v>
       </c>
       <c r="H58">
-        <v>4.1285204944229603E-2</v>
+        <v>7.9592033516435304E-2</v>
       </c>
       <c r="I58">
-        <v>3.9796018982340101E-2</v>
+        <v>6.03936785932448E-2</v>
       </c>
       <c r="J58">
-        <v>4.1366221778781999E-2</v>
+        <v>6.6754904248642E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>3.2785856154092997E-2</v>
+        <v>4.2649437171030001E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>0.128978042991964</v>
+        <v>0.37582549509668101</v>
       </c>
       <c r="E59">
-        <v>0.31277175425551201</v>
+        <v>0.62273504748116004</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>7.8046826070269706E-2</v>
+        <v>4.07544935841831E-2</v>
       </c>
       <c r="H59">
-        <v>3.5839229036854603E-2</v>
+        <v>5.6497570521860802E-2</v>
       </c>
       <c r="I59">
-        <v>6.18077047407583E-2</v>
+        <v>3.6993494973996198E-2</v>
       </c>
       <c r="J59">
-        <v>3.4338763334869703E-2</v>
+        <v>7.5618479133372093E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2995,153 +3012,153 @@
         <v>49</v>
       </c>
       <c r="B61">
-        <v>3.1864705033261997E-2</v>
+        <v>2.8880838460984E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>0.71709813162478198</v>
+        <v>0.391616885529389</v>
       </c>
       <c r="E61">
-        <v>0.80881998566981295</v>
+        <v>0.62273504748116004</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G61">
-        <v>3.4947910815278503E-2</v>
+        <v>1.8515774296377199E-2</v>
       </c>
       <c r="H61">
-        <v>2.9253672875435201E-2</v>
+        <v>2.9872434433051501E-2</v>
       </c>
       <c r="I61">
-        <v>4.4373861746323802E-2</v>
+        <v>2.87992418909673E-2</v>
       </c>
       <c r="J61">
-        <v>4.2209193829146903E-2</v>
+        <v>4.6377911552650003E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>2.8880838460984E-2</v>
+        <v>6.5727246714970197E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>0.391616885529389</v>
+        <v>0.38760288733965198</v>
       </c>
       <c r="E62">
         <v>0.62273504748116004</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G62">
-        <v>1.8515774296377199E-2</v>
+        <v>7.0209552735279401E-2</v>
       </c>
       <c r="H62">
-        <v>2.9872434433051501E-2</v>
+        <v>7.82002700708955E-2</v>
       </c>
       <c r="I62">
-        <v>2.87992418909673E-2</v>
+        <v>9.0772669564782693E-2</v>
       </c>
       <c r="J62">
-        <v>4.6377911552650003E-2</v>
+        <v>8.8666826215862707E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B63">
-        <v>6.7308133597493006E-2</v>
+        <v>2.7311449746275002E-2</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D63">
-        <v>0.20163262335777599</v>
+        <v>0.41040194706912297</v>
       </c>
       <c r="E63">
-        <v>0.42229267945196403</v>
+        <v>0.64208046557588605</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G63">
-        <v>9.9411155756052597E-2</v>
+        <v>3.4947910815278503E-2</v>
       </c>
       <c r="H63">
-        <v>9.6210667498794797E-2</v>
+        <v>2.9253672875435201E-2</v>
       </c>
       <c r="I63">
-        <v>6.1688354606103502E-2</v>
+        <v>4.1586331483635497E-2</v>
       </c>
       <c r="J63">
-        <v>5.7782704458152298E-2</v>
+        <v>3.37939618350174E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>6.4171208010820005E-2</v>
+        <v>3.5292198409681001E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>0.346940263003162</v>
+        <v>0.43816513759098902</v>
       </c>
       <c r="E64">
-        <v>0.59040711423345205</v>
+        <v>0.67463521184644304</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G64">
-        <v>8.4863498403756399E-2</v>
+        <v>7.8046826070269706E-2</v>
       </c>
       <c r="H64">
-        <v>7.9592033516435304E-2</v>
+        <v>3.5839229036854603E-2</v>
       </c>
       <c r="I64">
-        <v>6.03936785932448E-2</v>
+        <v>7.07101007676849E-2</v>
       </c>
       <c r="J64">
-        <v>6.6754904248642E-2</v>
+        <v>4.2603666921284901E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B65">
-        <v>5.6104605553279001E-2</v>
+        <v>4.5337326455814002E-2</v>
       </c>
       <c r="C65" t="s">
         <v>21</v>
       </c>
       <c r="D65">
-        <v>0.64131182246284402</v>
+        <v>0.46854665907601201</v>
       </c>
       <c r="E65">
-        <v>0.78743350353032804</v>
+        <v>0.71014103016207997</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G65">
-        <v>6.13715213529454E-2</v>
+        <v>4.5990195661916401E-2</v>
       </c>
       <c r="H65">
-        <v>9.6040223187112903E-2</v>
+        <v>5.8645454798692799E-2</v>
       </c>
       <c r="I65">
         <v>3.9365620074092902E-2</v>
@@ -3152,28 +3169,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B66">
-        <v>4.0301565113869002E-2</v>
+        <v>3.9072221975099998E-2</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66">
-        <v>0.54211547787845105</v>
+        <v>0.485312788781324</v>
       </c>
       <c r="E66">
-        <v>0.74971893664590605</v>
+        <v>0.72423600787366804</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>3.1915497375646799E-2</v>
+        <v>4.07544935841831E-2</v>
       </c>
       <c r="H66">
-        <v>6.0733252405908697E-2</v>
+        <v>5.6497570521860802E-2</v>
       </c>
       <c r="I66">
         <v>3.26319807937294E-2</v>
@@ -3184,194 +3201,194 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>3.5153402130610002E-2</v>
+        <v>3.5787620836237002E-2</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>0.51947232898826901</v>
+        <v>0.54839072416742995</v>
       </c>
       <c r="E67">
         <v>0.74971893664590605</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G67">
-        <v>1.6829505966785899E-2</v>
+        <v>3.9062025175618402E-2</v>
       </c>
       <c r="H67">
-        <v>3.2509714461175503E-2</v>
+        <v>3.6998115792133003E-2</v>
       </c>
       <c r="I67">
-        <v>3.7834409349763301E-2</v>
+        <v>3.29212565804433E-2</v>
       </c>
       <c r="J67">
-        <v>6.1622936499032298E-2</v>
+        <v>5.8068352484344797E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>3.5022655204848999E-2</v>
+        <v>6.9808684601490201E-2</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D68">
-        <v>0.70060572106506303</v>
+        <v>0.55688405172325905</v>
       </c>
       <c r="E68">
-        <v>0.80881998566981295</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F68" t="s">
         <v>28</v>
       </c>
       <c r="G68">
-        <v>3.4410317212474999E-2</v>
+        <v>0.10789861817584701</v>
       </c>
       <c r="H68">
-        <v>4.18754226267984E-2</v>
+        <v>9.9138203099267699E-2</v>
       </c>
       <c r="I68">
-        <v>3.9796018982340101E-2</v>
+        <v>8.4863498403756399E-2</v>
       </c>
       <c r="J68">
-        <v>4.1366221778781999E-2</v>
+        <v>7.9592033516435304E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>3.4692194989160999E-2</v>
+        <v>4.4728128055356003E-2</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>0.53449835767349996</v>
+        <v>0.57168935837107504</v>
       </c>
       <c r="E69">
         <v>0.74971893664590605</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G69">
-        <v>7.07101007676849E-2</v>
+        <v>3.6993494973996198E-2</v>
       </c>
       <c r="H69">
-        <v>4.2603666921284901E-2</v>
+        <v>7.5618479133372093E-2</v>
       </c>
       <c r="I69">
-        <v>6.18077047407583E-2</v>
+        <v>3.1915497375646799E-2</v>
       </c>
       <c r="J69">
-        <v>3.4338763334869703E-2</v>
+        <v>6.0733252405908697E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B70">
-        <v>3.4623484662677E-2</v>
+        <v>3.1492776575507003E-2</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>0.18429914157542199</v>
+        <v>0.55405808480227103</v>
       </c>
       <c r="E70">
-        <v>0.40629583483672599</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G70">
-        <v>1.59128888574641E-2</v>
+        <v>3.16989526447672E-2</v>
       </c>
       <c r="H70">
-        <v>1.7951734045461899E-2</v>
+        <v>5.8732280995541002E-2</v>
       </c>
       <c r="I70">
-        <v>4.3531457023073601E-2</v>
+        <v>1.6829505966785899E-2</v>
       </c>
       <c r="J70">
-        <v>4.88661296550775E-2</v>
+        <v>3.2509714461175503E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>3.2657000125746002E-2</v>
+        <v>2.6293346383813001E-2</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>0.61851958927517003</v>
+        <v>0.57195052898759902</v>
       </c>
       <c r="E71">
-        <v>0.779174028047942</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G71">
-        <v>2.3657532350057301E-2</v>
+        <v>1.8515774296377199E-2</v>
       </c>
       <c r="H71">
-        <v>3.1273334453120499E-2</v>
+        <v>2.9872434433051501E-2</v>
       </c>
       <c r="I71">
-        <v>3.1331647642270498E-2</v>
+        <v>2.6635240431008501E-2</v>
       </c>
       <c r="J71">
-        <v>5.9113072963019E-2</v>
+        <v>3.9767745927989297E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B72">
-        <v>3.2608740589493E-2</v>
+        <v>3.7700837417709E-2</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D72">
-        <v>0.84945681636104797</v>
+        <v>0.53069978373695403</v>
       </c>
       <c r="E72">
-        <v>0.89562294768501804</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G72">
-        <v>4.1586331483635497E-2</v>
+        <v>3.2228484851314798E-2</v>
       </c>
       <c r="H72">
-        <v>3.37939618350174E-2</v>
+        <v>3.8085832366072297E-2</v>
       </c>
       <c r="I72">
-        <v>4.4373861746323802E-2</v>
+        <v>4.3531457023073601E-2</v>
       </c>
       <c r="J72">
-        <v>4.2209193829146903E-2</v>
+        <v>4.88661296550775E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3379,31 +3396,31 @@
         <v>53</v>
       </c>
       <c r="B73">
-        <v>3.2164227149967001E-2</v>
+        <v>4.0301565113869002E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>0.80053553318813897</v>
+        <v>0.54211547787845105</v>
       </c>
       <c r="E73">
-        <v>0.85899791534117298</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G73">
-        <v>2.6635240431008501E-2</v>
+        <v>3.1915497375646799E-2</v>
       </c>
       <c r="H73">
-        <v>3.9767745927989297E-2</v>
+        <v>6.0733252405908697E-2</v>
       </c>
       <c r="I73">
-        <v>2.87992418909673E-2</v>
+        <v>3.26319807937294E-2</v>
       </c>
       <c r="J73">
-        <v>4.6377911552650003E-2</v>
+        <v>5.8685636414341498E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3411,95 +3428,95 @@
         <v>53</v>
       </c>
       <c r="B74">
-        <v>2.5877136379858001E-2</v>
+        <v>3.5153402130610002E-2</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>0.116354853393036</v>
+        <v>0.51947232898826901</v>
       </c>
       <c r="E74">
-        <v>0.29125407509661499</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G74">
-        <v>4.59111399702231E-2</v>
+        <v>1.6829505966785899E-2</v>
       </c>
       <c r="H74">
-        <v>2.4543077820389E-2</v>
+        <v>3.2509714461175503E-2</v>
       </c>
       <c r="I74">
-        <v>6.2220395874355301E-2</v>
+        <v>3.7834409349763301E-2</v>
       </c>
       <c r="J74">
-        <v>3.1423949265990597E-2</v>
+        <v>6.1622936499032298E-2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>6.5781638018044403E-2</v>
+        <v>3.4692194989160999E-2</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>1.7237190629957998E-2</v>
+        <v>0.53449835767349996</v>
       </c>
       <c r="E75">
-        <v>5.7655430727790502E-2</v>
+        <v>0.74971893664590605</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G75">
-        <v>7.4074033781213494E-2</v>
+        <v>7.07101007676849E-2</v>
       </c>
       <c r="H75">
-        <v>0.10858540223416201</v>
+        <v>4.2603666921284901E-2</v>
       </c>
       <c r="I75">
-        <v>8.6908188518848697E-2</v>
+        <v>6.18077047407583E-2</v>
       </c>
       <c r="J75">
-        <v>4.8156509142131099E-2</v>
+        <v>3.4338763334869703E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B76">
-        <v>5.5845049925155599E-2</v>
+        <v>2.4493263299668999E-2</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>0.60387696094467302</v>
+        <v>0.58570243576304404</v>
       </c>
       <c r="E76">
-        <v>0.77073770015306997</v>
+        <v>0.75750848358687095</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>3.4660102561048199E-2</v>
+        <v>2.6545928117924299E-2</v>
       </c>
       <c r="H76">
-        <v>3.0474790662566999E-2</v>
+        <v>4.4644044123774297E-2</v>
       </c>
       <c r="I76">
-        <v>8.7722566211456299E-2</v>
+        <v>1.6829505966785899E-2</v>
       </c>
       <c r="J76">
-        <v>9.6922140018730299E-2</v>
+        <v>3.2509714461175503E-2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3507,706 +3524,709 @@
         <v>57</v>
       </c>
       <c r="B77">
-        <v>4.6211078130068001E-2</v>
+        <v>5.5845049925155599E-2</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="1">
-        <v>7.2673181477282497E-9</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1.7623246508241001E-7</v>
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>0.60387696094467302</v>
+      </c>
+      <c r="E77">
+        <v>0.77073770015306997</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G77">
-        <v>7.6391192948928294E-2</v>
+        <v>3.4660102561048199E-2</v>
       </c>
       <c r="H77">
-        <v>7.8521855539744806E-2</v>
+        <v>3.0474790662566999E-2</v>
       </c>
       <c r="I77">
-        <v>1.0168178759438699E-2</v>
+        <v>8.7722566211456299E-2</v>
       </c>
       <c r="J77">
-        <v>1.4651544140408999E-2</v>
+        <v>9.6922140018730299E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B78">
-        <v>4.1954173641241002E-2</v>
+        <v>3.2657000125746002E-2</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>8.5365657694296496E-3</v>
+        <v>0.61851958927517003</v>
       </c>
       <c r="E78">
-        <v>3.7680089099591599E-2</v>
+        <v>0.779174028047942</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>6.1735757782266899E-2</v>
+        <v>2.3657532350057301E-2</v>
       </c>
       <c r="H78">
-        <v>7.4666184997638899E-2</v>
+        <v>3.1273334453120499E-2</v>
       </c>
       <c r="I78">
-        <v>9.8632262920916505E-3</v>
+        <v>3.1331647642270498E-2</v>
       </c>
       <c r="J78">
-        <v>2.9086039663618099E-2</v>
+        <v>5.9113072963019E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>3.7415145469036001E-2</v>
+        <v>3.4921056115115999E-2</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2.05585194244233E-8</v>
-      </c>
-      <c r="E79" s="1">
-        <v>3.9883527683381299E-7</v>
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>0.633089619964043</v>
+      </c>
+      <c r="E79">
+        <v>0.78730375816041298</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G79">
-        <v>5.7353649908020998E-2</v>
+        <v>3.9085251687695E-2</v>
       </c>
       <c r="H79">
-        <v>4.67141767393894E-2</v>
+        <v>4.1285204944229603E-2</v>
       </c>
       <c r="I79">
-        <v>1.1058429585531699E-2</v>
+        <v>3.4410317212474999E-2</v>
       </c>
       <c r="J79">
-        <v>3.1418691494582401E-2</v>
+        <v>4.18754226267984E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B80">
-        <v>3.6024551642797997E-2</v>
+        <v>5.6104605553279001E-2</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>9.1793159246146803E-3</v>
+        <v>0.64131182246284402</v>
       </c>
       <c r="E80">
-        <v>3.87127671603315E-2</v>
+        <v>0.78743350353032804</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G80">
-        <v>2.4169317522618101E-2</v>
+        <v>6.13715213529454E-2</v>
       </c>
       <c r="H80">
-        <v>5.96941538855136E-2</v>
+        <v>9.6040223187112903E-2</v>
       </c>
       <c r="I80">
-        <v>4.2453984185770503E-2</v>
+        <v>3.9365620074092902E-2</v>
       </c>
       <c r="J80">
-        <v>6.7683007655201702E-2</v>
+        <v>6.3595971824457795E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>3.5147353693553998E-2</v>
+        <v>3.2203398644503001E-2</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>5.4885321947019602E-3</v>
+        <v>0.69297031172472801</v>
       </c>
       <c r="E81">
-        <v>2.66193811443045E-2</v>
+        <v>0.80881998566981295</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G81">
-        <v>3.9699500025183299E-2</v>
+        <v>2.7688827702410702E-2</v>
       </c>
       <c r="H81">
-        <v>1.554128829736E-2</v>
+        <v>2.8268022417426299E-2</v>
       </c>
       <c r="I81">
-        <v>7.4097131012268697E-2</v>
+        <v>4.5990195661916401E-2</v>
       </c>
       <c r="J81">
-        <v>4.8509115222415397E-2</v>
+        <v>5.8645454798692799E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>3.5003303722319003E-2</v>
+        <v>3.8990758073214997E-2</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1.80685336159737E-9</v>
-      </c>
-      <c r="E82" s="1">
-        <v>5.8421592024981603E-8</v>
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>0.67900606855120904</v>
+      </c>
+      <c r="E82">
+        <v>0.80881998566981295</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G82">
-        <v>1.88524234661511E-3</v>
+        <v>4.07544935841831E-2</v>
       </c>
       <c r="H82">
-        <v>3.0099494814167E-3</v>
+        <v>5.6497570521860802E-2</v>
       </c>
       <c r="I82">
-        <v>5.38031382506255E-2</v>
+        <v>3.1915497375646799E-2</v>
       </c>
       <c r="J82">
-        <v>3.93620645755451E-2</v>
+        <v>6.0733252405908697E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B83">
-        <v>3.4665284068416999E-2</v>
+        <v>5.9066803124236802E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>0.20896957333705399</v>
+        <v>0.67418730204715405</v>
       </c>
       <c r="E83">
-        <v>0.42229267945196403</v>
+        <v>0.80881998566981295</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G83">
-        <v>5.1914991803641897E-2</v>
+        <v>7.9931425394260805E-2</v>
       </c>
       <c r="H83">
-        <v>6.1466530343607099E-2</v>
+        <v>0.10287913560345301</v>
       </c>
       <c r="I83">
-        <v>3.9122683897651299E-3</v>
+        <v>2.23477580651146E-2</v>
       </c>
       <c r="J83">
-        <v>7.1868680875940803E-3</v>
+        <v>2.4870168697368699E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B84">
-        <v>3.1336474903098002E-2</v>
+        <v>3.2716771398054997E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>1.61759254933205E-2</v>
+        <v>0.71103782970565999</v>
       </c>
       <c r="E84">
-        <v>5.6038027601860198E-2</v>
+        <v>0.80881998566981295</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G84">
-        <v>4.7929897083316103E-2</v>
+        <v>2.7020121493482999E-2</v>
       </c>
       <c r="H84">
-        <v>4.8704203967614698E-2</v>
+        <v>5.2365170708018403E-2</v>
       </c>
       <c r="I84">
-        <v>9.5370403784657207E-3</v>
+        <v>3.1331647642270498E-2</v>
       </c>
       <c r="J84">
-        <v>2.1338970543726899E-2</v>
+        <v>5.9113072963019E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B85">
-        <v>2.8957445528714001E-2</v>
+        <v>3.0301642866734001E-2</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="1">
-        <v>8.7847174376957296E-10</v>
-      </c>
-      <c r="E85" s="1">
-        <v>4.2605879572824297E-8</v>
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>0.69049952782051705</v>
+      </c>
+      <c r="E85">
+        <v>0.80881998566981295</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2.7688827702410702E-2</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2.8268022417426299E-2</v>
       </c>
       <c r="I85">
-        <v>4.3418001086866699E-2</v>
+        <v>3.9365620074092902E-2</v>
       </c>
       <c r="J85">
-        <v>3.8420789861127E-2</v>
+        <v>6.3595971824457795E-2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B86">
-        <v>2.8173433070773E-2</v>
+        <v>3.1864705033261997E-2</v>
       </c>
       <c r="C86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="1">
-        <v>3.10724657201131E-6</v>
-      </c>
-      <c r="E86" s="1">
-        <v>3.7675364685637097E-5</v>
+      <c r="D86">
+        <v>0.71709813162478198</v>
+      </c>
+      <c r="E86">
+        <v>0.80881998566981295</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G86">
-        <v>1.18475341333136E-2</v>
+        <v>3.4947910815278503E-2</v>
       </c>
       <c r="H86">
-        <v>1.01083971736295E-2</v>
+        <v>2.9253672875435201E-2</v>
       </c>
       <c r="I86">
-        <v>5.0561362195309101E-2</v>
+        <v>4.4373861746323802E-2</v>
       </c>
       <c r="J86">
-        <v>3.6438967953538202E-2</v>
+        <v>4.2209193829146903E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>6.5727246714970197E-2</v>
+        <v>3.5022655204848999E-2</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>0.38760288733965198</v>
+        <v>0.70060572106506303</v>
       </c>
       <c r="E87">
-        <v>0.62273504748116004</v>
+        <v>0.80881998566981295</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>7.0209552735279401E-2</v>
+        <v>3.4410317212474999E-2</v>
       </c>
       <c r="H87">
-        <v>7.82002700708955E-2</v>
+        <v>4.18754226267984E-2</v>
       </c>
       <c r="I87">
-        <v>9.0772669564782693E-2</v>
+        <v>3.9796018982340101E-2</v>
       </c>
       <c r="J87">
-        <v>8.8666826215862707E-2</v>
+        <v>4.1366221778781999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>5.6402483769310799E-2</v>
+        <v>4.3599630214835997E-2</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>0.188845582529998</v>
+        <v>0.78115741146809103</v>
       </c>
       <c r="E88">
-        <v>0.40706714456466198</v>
+        <v>0.85899791534117298</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G88">
-        <v>4.5050658721668697E-2</v>
+        <v>2.7688827702410702E-2</v>
       </c>
       <c r="H88">
-        <v>5.77002146821156E-2</v>
+        <v>2.8268022417426299E-2</v>
       </c>
       <c r="I88">
-        <v>7.73320100508358E-2</v>
+        <v>6.13715213529454E-2</v>
       </c>
       <c r="J88">
-        <v>8.8912346145497603E-2</v>
+        <v>9.6040223187112903E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B89">
-        <v>5.2187051386932998E-2</v>
+        <v>6.2398920388543701E-2</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="1">
-        <v>5.0609694290093499E-11</v>
-      </c>
-      <c r="E89" s="1">
-        <v>4.9091403461390704E-9</v>
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>0.79576339142953001</v>
+      </c>
+      <c r="E89">
+        <v>0.85899791534117298</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89" s="1">
-        <v>5.8228522911979998E-5</v>
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>7.9453501074221097E-2</v>
       </c>
       <c r="H89">
-        <v>1.6703429557230899E-4</v>
+        <v>8.3065779309242596E-2</v>
       </c>
       <c r="I89">
-        <v>7.1540755551446497E-2</v>
+        <v>6.1688354606103502E-2</v>
       </c>
       <c r="J89">
-        <v>7.1951065875998296E-2</v>
+        <v>5.7782704458152298E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B90">
-        <v>4.4138915491918999E-2</v>
+        <v>5.9714357015210301E-2</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>0.20706002992851</v>
+        <v>0.80586402367058496</v>
       </c>
       <c r="E90">
-        <v>0.42229267945196403</v>
+        <v>0.85899791534117298</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G90">
-        <v>6.2722988218628303E-2</v>
+        <v>6.3530322806986506E-2</v>
       </c>
       <c r="H90">
-        <v>8.3010404774993898E-2</v>
+        <v>7.9898999869105994E-2</v>
       </c>
       <c r="I90">
-        <v>2.38363834897387E-2</v>
+        <v>6.03936785932448E-2</v>
       </c>
       <c r="J90">
-        <v>3.1101920443607899E-2</v>
+        <v>6.6754904248642E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B91">
-        <v>3.9295828664298003E-2</v>
+        <v>3.5543017377596998E-2</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D91">
-        <v>0.33233821667327301</v>
+        <v>0.794313264024192</v>
       </c>
       <c r="E91">
-        <v>0.58387539881084205</v>
+        <v>0.85899791534117298</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G91">
-        <v>3.25280461004838E-2</v>
+        <v>3.9085251687695E-2</v>
       </c>
       <c r="H91">
-        <v>7.4787146477644298E-2</v>
+        <v>4.1285204944229603E-2</v>
       </c>
       <c r="I91">
-        <v>3.4095255607904801E-2</v>
+        <v>3.9796018982340101E-2</v>
       </c>
       <c r="J91">
-        <v>5.2172231512945602E-2</v>
+        <v>4.1366221778781999E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B92">
-        <v>3.8452353200222E-2</v>
+        <v>3.2164227149967001E-2</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="1">
-        <v>3.58936499471518E-5</v>
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>0.80053553318813897</v>
       </c>
       <c r="E92">
-        <v>3.1651673135215698E-4</v>
+        <v>0.85899791534117298</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>5.2968729656769603E-2</v>
+        <v>2.6635240431008501E-2</v>
       </c>
       <c r="H92">
-        <v>6.0521724302403802E-2</v>
+        <v>3.9767745927989297E-2</v>
       </c>
       <c r="I92">
-        <v>2.85853053663744E-3</v>
+        <v>2.87992418909673E-2</v>
       </c>
       <c r="J92">
-        <v>7.7824897542097598E-3</v>
+        <v>4.6377911552650003E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B93">
-        <v>3.8062200317052999E-2</v>
+        <v>3.2608740589493E-2</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D93">
-        <v>1.04272475673318E-2</v>
+        <v>0.84945681636104797</v>
       </c>
       <c r="E93">
-        <v>4.2143458917966101E-2</v>
+        <v>0.89562294768501804</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G93">
-        <v>1.4026839442887899E-2</v>
+        <v>4.1586331483635497E-2</v>
       </c>
       <c r="H93">
-        <v>1.99217201930488E-2</v>
+        <v>3.37939618350174E-2</v>
       </c>
       <c r="I93">
-        <v>5.43852400506648E-2</v>
+        <v>4.4373861746323802E-2</v>
       </c>
       <c r="J93">
-        <v>5.5109402578439597E-2</v>
+        <v>4.2209193829146903E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B94">
-        <v>3.3394859304632998E-2</v>
+        <v>4.5365029838786999E-2</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="1">
-        <v>2.40264983497016E-6</v>
-      </c>
-      <c r="E94" s="1">
-        <v>3.3293861998872199E-5</v>
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>0.86185982238814696</v>
+      </c>
+      <c r="E94">
+        <v>0.89892906206075496</v>
       </c>
       <c r="F94" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G94">
-        <v>1.2606992822582101E-2</v>
+        <v>3.6993494973996198E-2</v>
       </c>
       <c r="H94">
-        <v>3.0379481506786401E-2</v>
+        <v>7.5618479133372093E-2</v>
       </c>
       <c r="I94">
-        <v>4.4859944639199699E-2</v>
+        <v>3.26319807937294E-2</v>
       </c>
       <c r="J94">
-        <v>4.6126067191392603E-2</v>
+        <v>5.8685636414341498E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B95">
-        <v>3.2735245153740003E-2</v>
+        <v>2.7322701641852999E-2</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D95">
-        <v>0.23911084208893801</v>
+        <v>0.879164803243207</v>
       </c>
       <c r="E95">
-        <v>0.46387503365254001</v>
+        <v>0.90568458875440905</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G95">
-        <v>6.0366125247143902E-2</v>
+        <v>2.7020121493482999E-2</v>
       </c>
       <c r="H95">
-        <v>3.6616732643917599E-2</v>
+        <v>5.2365170708018403E-2</v>
       </c>
       <c r="I95">
-        <v>5.34305057903081E-2</v>
+        <v>2.3657532350057301E-2</v>
       </c>
       <c r="J95">
-        <v>4.2867744559941502E-2</v>
+        <v>3.1273334453120499E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B96">
-        <v>3.0860984992009E-2</v>
+        <v>4.2653431738706997E-2</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D96">
-        <v>0.31686692453652698</v>
+        <v>0.88701067970792602</v>
       </c>
       <c r="E96">
-        <v>0.56918688296376196</v>
+        <v>0.90568458875440905</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G96">
-        <v>3.8315172704074398E-2</v>
+        <v>3.16989526447672E-2</v>
       </c>
       <c r="H96">
-        <v>6.8706024435120097E-2</v>
+        <v>5.8732280995541002E-2</v>
       </c>
       <c r="I96">
-        <v>1.20063768714333E-2</v>
+        <v>3.7834409349763301E-2</v>
       </c>
       <c r="J96">
-        <v>2.33785492500799E-2</v>
+        <v>6.1622936499032298E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B97">
-        <v>2.8120205789376001E-2</v>
+        <v>3.4452069623159998E-2</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D97">
-        <v>0.23438628171336501</v>
+        <v>0.94789207430147504</v>
       </c>
       <c r="E97">
-        <v>0.46387503365254001</v>
+        <v>0.95776595007544896</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G97">
-        <v>2.60277726804145E-2</v>
+        <v>3.29212565804433E-2</v>
       </c>
       <c r="H97">
-        <v>3.6558155297439797E-2</v>
+        <v>5.8068352484344797E-2</v>
       </c>
       <c r="I97">
-        <v>2.96606079168261E-2</v>
+        <v>2.3058531679715E-2</v>
       </c>
       <c r="J97">
-        <v>4.00173283129222E-2</v>
+        <v>3.63042217667199E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B98">
-        <v>2.6358859857318999E-2</v>
+        <v>5.7763622974811003E-2</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D98">
-        <v>4.9481013863441102E-3</v>
+        <v>0.98737611417098403</v>
       </c>
       <c r="E98">
-        <v>2.5261359709230501E-2</v>
+        <v>0.98737611417098403</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G98">
-        <v>6.6889237740684004E-2</v>
+        <v>4.5990195661916401E-2</v>
       </c>
       <c r="H98">
-        <v>3.3665519497681901E-2</v>
+        <v>5.8645454798692799E-2</v>
       </c>
       <c r="I98">
-        <v>4.6931804155910098E-2</v>
+        <v>6.13715213529454E-2</v>
       </c>
       <c r="J98">
-        <v>2.5684208961967801E-2</v>
+        <v>9.6040223187112903E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J98">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>